--- a/accessdb/templateSheets/01_defFamSheet.xlsx
+++ b/accessdb/templateSheets/01_defFamSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E097EF-AC9A-4B40-BC8A-E3E0F0FA841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CFA5F7-CCAE-49F0-9D71-2F4E780A21DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4510145</xdr:colOff>
+      <xdr:colOff>3829788</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -545,7 +545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8028792" y="0"/>
+          <a:off x="7367645" y="0"/>
           <a:ext cx="4660185" cy="970266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0EA35-602C-4E1F-A94E-665F1CEBDA8B}">
   <dimension ref="A1:C1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
